--- a/smseventlog/data/csv/FH Frame Cracks History.xlsx
+++ b/smseventlog/data/csv/FH Frame Cracks History.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jayme/OneDrive/Python/SMS/smseventlog/data/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8191CC85-2F74-0F4A-94EC-3A4193B2CF76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2CA760-D336-3A4A-8F48-42F5EA08BF1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined" sheetId="5" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6953" uniqueCount="2344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7054" uniqueCount="2385">
   <si>
     <t/>
   </si>
@@ -7102,6 +7102,129 @@
   </si>
   <si>
     <t>no Order to match to other cracks</t>
+  </si>
+  <si>
+    <t>F0302 - Repair Frame Crack - LHS</t>
+  </si>
+  <si>
+    <t>F0302-STRUCTR-FRMGRP-MAINFRAME</t>
+  </si>
+  <si>
+    <t>Frame Crack, 2 Behind intermediate torque tube</t>
+  </si>
+  <si>
+    <t>Frame crack 2' behind intermediate torque tube. Frame inspection sheet, pictures and downloads in folder. (rear)</t>
+  </si>
+  <si>
+    <t>F0303- UPPER FUEL TANK MOUNT CRACK</t>
+  </si>
+  <si>
+    <t>F0303-STRUCTR-FRMGRP-MAINFRAME</t>
+  </si>
+  <si>
+    <t>Frame inspection and downloads in folder . Pictures in folder (mid)</t>
+  </si>
+  <si>
+    <t>F0307 Repair Right Deck Wing Crack</t>
+  </si>
+  <si>
+    <t>F0307-STRUCTR</t>
+  </si>
+  <si>
+    <t>6" crack LHS behind horse collar.</t>
+  </si>
+  <si>
+    <t>2020-07-10 - Completed (Mid).</t>
+  </si>
+  <si>
+    <t>USAAB202007773</t>
+  </si>
+  <si>
+    <t>13" crack LH side outer near pivot.</t>
+  </si>
+  <si>
+    <t>2020-07-13- C/O on nights - Complete SL (Rear)</t>
+  </si>
+  <si>
+    <t>USAAB202007736</t>
+  </si>
+  <si>
+    <t>F0315 - Repair Frame Crack LHS</t>
+  </si>
+  <si>
+    <t>F0315-STRUCTR-FRMGRP-MAINFRAME</t>
+  </si>
+  <si>
+    <t>Frame Crack - LHS behind Accumulators</t>
+  </si>
+  <si>
+    <t>NDT testing unable to confirm crack. No repairs were required - please cancel WO.</t>
+  </si>
+  <si>
+    <t>F0317- RH ACCUMULATOR BRACKET CRACKED</t>
+  </si>
+  <si>
+    <t>F0317-STRUCTR</t>
+  </si>
+  <si>
+    <t>F0317- LH FRAME CRACK</t>
+  </si>
+  <si>
+    <t>F0317-STRUCTR-FRMGRP-MAINFRAME</t>
+  </si>
+  <si>
+    <t>Repaired by SMS - Downloads, frame inspection in folder (mid)</t>
+  </si>
+  <si>
+    <t>F0318 RRI Flat/Possible Wheel Cracked</t>
+  </si>
+  <si>
+    <t>F0318-WHEELST-TIRERM-TIRE_RRI</t>
+  </si>
+  <si>
+    <t>3" Crack foun on LHS inner frame (rear)</t>
+  </si>
+  <si>
+    <t>F0318 REPAIR RHS HOIST MOUNT CRACK</t>
+  </si>
+  <si>
+    <t>F0318-STRUCTR-BODYGP-DUMPBODY</t>
+  </si>
+  <si>
+    <t>Frame Cracks behind Steering Cyl Mounts (x2)</t>
+  </si>
+  <si>
+    <t>Frame inspection sheet and pictures in folder. Downloads in folder (front)</t>
+  </si>
+  <si>
+    <t>F0328 Repair Small Frame Cracks</t>
+  </si>
+  <si>
+    <t>F0328-STRUCTR-FRMGRP-MAINFRAME</t>
+  </si>
+  <si>
+    <t>Frame Cracks, RH Front Engine Mount (x2)</t>
+  </si>
+  <si>
+    <t>Frame inspection sheet and picures in folder. Downloads in folder (front)</t>
+  </si>
+  <si>
+    <t>F0342 CRACK REPAIR RH ACCUMULATOR MOUNT</t>
+  </si>
+  <si>
+    <t>F0342-STRUCTR-FRMGRP-MAINFRAME</t>
+  </si>
+  <si>
+    <t>F0343 REPLACE CRACKED TURBO VENT HOSE</t>
+  </si>
+  <si>
+    <t>F0343-POWRTRN-ENGSYS-COOLINGSYSTEM</t>
+  </si>
+  <si>
+    <t>F0345 - Replace cracked RH exhaust tube</t>
+  </si>
+  <si>
+    <t>F0345-POWRTRN-ENGSYS-INTAKE_EXHAUST</t>
   </si>
 </sst>
 </file>
@@ -7159,7 +7282,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="27">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7261,45 +7384,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -7318,6 +7403,17 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -7340,39 +7436,6 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -7387,27 +7450,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DB9EB3ED-A5AE-A14F-BE41-6F70A132F98A}" name="Table8" displayName="Table8" ref="A1:N651" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
-  <autoFilter ref="A1:N651" xr:uid="{770DCF22-4040-4F45-A195-204E915BAAAB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DB9EB3ED-A5AE-A14F-BE41-6F70A132F98A}" name="Table8" displayName="Table8" ref="A1:N668" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="A1:N668" xr:uid="{770DCF22-4040-4F45-A195-204E915BAAAB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N651">
     <sortCondition ref="E2:E651"/>
     <sortCondition ref="F2:F651"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="2" xr3:uid="{53D3D3F1-E0BA-4340-9121-6CFC3A6BBED5}" name="Notification" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{942C54F4-1B74-F744-8422-CE3A00D63E29}" name="Order" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{CE58EB44-0294-A540-BADC-B330250F9D5A}" name="Description" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{A16A2E72-CB27-B343-9AC7-2F2C99794968}" name="Functional Loc." dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{17079771-16C4-994F-84E9-FE41B9EA26CA}" name="Unit" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{67C2E32D-1CB5-6A49-ABE3-6BBF2F8E1295}" name="Date" dataDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{A27D90CC-5D75-B846-93C6-6ED559BA716C}" name="SMR" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{34E85FBD-6591-4C45-A9D2-90532A4D7F9B}" name="Title" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{C8E47BC8-1926-E449-8B19-6F8C56C2D6D4}" name="TSIPartName" dataDxfId="21"/>
-    <tableColumn id="11" xr3:uid="{D6107AB1-CB21-8F4F-951F-418588B08388}" name="TSIDetails" dataDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{15A9F08F-8238-954D-BA0F-85456896E2F2}" name="WOComments" dataDxfId="19"/>
-    <tableColumn id="13" xr3:uid="{C5867ABD-2C68-284B-9E81-485D59D68A26}" name="TSINumber" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{C16E5D52-8FF8-714E-B524-0088F6DF5EDB}" name="Location" dataDxfId="17"/>
-    <tableColumn id="1" xr3:uid="{0509EBCD-9CB8-BB4E-8D44-049AB3209895}" name="_merge" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{53D3D3F1-E0BA-4340-9121-6CFC3A6BBED5}" name="Notification" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{942C54F4-1B74-F744-8422-CE3A00D63E29}" name="Order" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{CE58EB44-0294-A540-BADC-B330250F9D5A}" name="Description" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{A16A2E72-CB27-B343-9AC7-2F2C99794968}" name="Functional Loc." dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{17079771-16C4-994F-84E9-FE41B9EA26CA}" name="Unit" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{67C2E32D-1CB5-6A49-ABE3-6BBF2F8E1295}" name="Date" dataDxfId="19"/>
+    <tableColumn id="15" xr3:uid="{A27D90CC-5D75-B846-93C6-6ED559BA716C}" name="SMR" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{34E85FBD-6591-4C45-A9D2-90532A4D7F9B}" name="Title" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{C8E47BC8-1926-E449-8B19-6F8C56C2D6D4}" name="TSIPartName" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{D6107AB1-CB21-8F4F-951F-418588B08388}" name="TSIDetails" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{15A9F08F-8238-954D-BA0F-85456896E2F2}" name="WOComments" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{C5867ABD-2C68-284B-9E81-485D59D68A26}" name="TSINumber" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{C16E5D52-8FF8-714E-B524-0088F6DF5EDB}" name="Location" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{0509EBCD-9CB8-BB4E-8D44-049AB3209895}" name="_merge" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7423,7 +7486,7 @@
     <tableColumn id="2" xr3:uid="{8BEF7178-E3B4-D149-A75C-2EC7E1E9CBA7}" name="Notification"/>
     <tableColumn id="3" xr3:uid="{11DB8A07-87AD-FE46-8761-2170FE8BBA14}" name="Order"/>
     <tableColumn id="4" xr3:uid="{BBFD0320-2E12-F24A-805F-F04232B9497B}" name="Description2"/>
-    <tableColumn id="5" xr3:uid="{85588FB8-9272-344F-8515-99C3D899FF2A}" name="Created on" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{85588FB8-9272-344F-8515-99C3D899FF2A}" name="Created on" dataDxfId="10"/>
     <tableColumn id="6" xr3:uid="{FC0BCB59-BFC5-0643-9D08-977DACD51993}" name="Functional Loc."/>
     <tableColumn id="7" xr3:uid="{016A5D1D-804A-2249-9172-09491E3480EC}" name="Location"/>
     <tableColumn id="9" xr3:uid="{C484CC0E-6555-E74D-8560-E8B5B04E61D3}" name="Unit"/>
@@ -7753,10 +7816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F275D9-6D58-E546-9951-5DFEA9FF85BC}">
-  <dimension ref="A1:N651"/>
+  <dimension ref="A1:N668"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A627" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E651" sqref="E651"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D647" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N651" sqref="N651:N668"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30096,6 +30159,602 @@
         <v>2320</v>
       </c>
     </row>
+    <row r="652" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A652" s="3">
+        <v>905399918</v>
+      </c>
+      <c r="B652" s="3">
+        <v>31590159</v>
+      </c>
+      <c r="C652" s="2" t="s">
+        <v>2344</v>
+      </c>
+      <c r="D652" s="2" t="s">
+        <v>2345</v>
+      </c>
+      <c r="E652" s="3" t="s">
+        <v>1705</v>
+      </c>
+      <c r="F652" s="4">
+        <v>44028</v>
+      </c>
+      <c r="G652" s="6">
+        <v>24280</v>
+      </c>
+      <c r="H652" s="2" t="s">
+        <v>2346</v>
+      </c>
+      <c r="I652" s="2"/>
+      <c r="J652" s="2"/>
+      <c r="K652" s="2" t="s">
+        <v>2347</v>
+      </c>
+      <c r="L652" s="3"/>
+      <c r="M652" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N652" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="653" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A653" s="3">
+        <v>905402325</v>
+      </c>
+      <c r="B653" s="3">
+        <v>31591008</v>
+      </c>
+      <c r="C653" s="2" t="s">
+        <v>2348</v>
+      </c>
+      <c r="D653" s="2" t="s">
+        <v>2349</v>
+      </c>
+      <c r="E653" s="3" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F653" s="4">
+        <v>44031</v>
+      </c>
+      <c r="G653" s="6">
+        <v>23249</v>
+      </c>
+      <c r="H653" s="2" t="s">
+        <v>1945</v>
+      </c>
+      <c r="I653" s="2"/>
+      <c r="J653" s="2"/>
+      <c r="K653" s="2" t="s">
+        <v>2350</v>
+      </c>
+      <c r="L653" s="3"/>
+      <c r="M653" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N653" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="654" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A654" s="3">
+        <v>905371033</v>
+      </c>
+      <c r="B654" s="3"/>
+      <c r="C654" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D654" s="2" t="s">
+        <v>2335</v>
+      </c>
+      <c r="E654" s="3" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F654" s="4">
+        <v>44000</v>
+      </c>
+      <c r="G654" s="6">
+        <v>23841</v>
+      </c>
+      <c r="H654" s="2"/>
+      <c r="I654" s="2"/>
+      <c r="J654" s="2"/>
+      <c r="K654" s="2"/>
+      <c r="L654" s="3"/>
+      <c r="M654" s="3" t="s">
+        <v>2269</v>
+      </c>
+      <c r="N654" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="655" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A655" s="3">
+        <v>905399471</v>
+      </c>
+      <c r="B655" s="3">
+        <v>31590086</v>
+      </c>
+      <c r="C655" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="D655" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E655" s="3" t="s">
+        <v>1723</v>
+      </c>
+      <c r="F655" s="4">
+        <v>44027</v>
+      </c>
+      <c r="G655" s="6">
+        <v>24183</v>
+      </c>
+      <c r="H655" s="2"/>
+      <c r="I655" s="2"/>
+      <c r="J655" s="2"/>
+      <c r="K655" s="2"/>
+      <c r="L655" s="3"/>
+      <c r="M655" s="3"/>
+      <c r="N655" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="656" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A656" s="3"/>
+      <c r="B656" s="3">
+        <v>3159891</v>
+      </c>
+      <c r="C656" s="2"/>
+      <c r="D656" s="2"/>
+      <c r="E656" s="3" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F656" s="4">
+        <v>44022</v>
+      </c>
+      <c r="G656" s="6">
+        <v>23067</v>
+      </c>
+      <c r="H656" s="2" t="s">
+        <v>1783</v>
+      </c>
+      <c r="I656" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J656" s="2" t="s">
+        <v>2353</v>
+      </c>
+      <c r="K656" s="2" t="s">
+        <v>2354</v>
+      </c>
+      <c r="L656" s="3" t="s">
+        <v>2355</v>
+      </c>
+      <c r="M656" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N656" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="657" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A657" s="3"/>
+      <c r="B657" s="3">
+        <v>46615340</v>
+      </c>
+      <c r="C657" s="2"/>
+      <c r="D657" s="2"/>
+      <c r="E657" s="3" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F657" s="4">
+        <v>44024</v>
+      </c>
+      <c r="G657" s="6">
+        <v>23065</v>
+      </c>
+      <c r="H657" s="2" t="s">
+        <v>1783</v>
+      </c>
+      <c r="I657" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J657" s="2" t="s">
+        <v>2356</v>
+      </c>
+      <c r="K657" s="2" t="s">
+        <v>2357</v>
+      </c>
+      <c r="L657" s="3" t="s">
+        <v>2358</v>
+      </c>
+      <c r="M657" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N657" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="658" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A658" s="3">
+        <v>905408778</v>
+      </c>
+      <c r="B658" s="3">
+        <v>31593343</v>
+      </c>
+      <c r="C658" s="2" t="s">
+        <v>2359</v>
+      </c>
+      <c r="D658" s="2" t="s">
+        <v>2360</v>
+      </c>
+      <c r="E658" s="3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F658" s="4">
+        <v>44036</v>
+      </c>
+      <c r="G658" s="6">
+        <v>21695</v>
+      </c>
+      <c r="H658" s="2" t="s">
+        <v>2361</v>
+      </c>
+      <c r="I658" s="2"/>
+      <c r="J658" s="2"/>
+      <c r="K658" s="2" t="s">
+        <v>2362</v>
+      </c>
+      <c r="L658" s="3"/>
+      <c r="M658" s="3" t="s">
+        <v>2269</v>
+      </c>
+      <c r="N658" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="659" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A659" s="3">
+        <v>905405673</v>
+      </c>
+      <c r="B659" s="3">
+        <v>31592227</v>
+      </c>
+      <c r="C659" s="2" t="s">
+        <v>2363</v>
+      </c>
+      <c r="D659" s="2" t="s">
+        <v>2364</v>
+      </c>
+      <c r="E659" s="3" t="s">
+        <v>1734</v>
+      </c>
+      <c r="F659" s="4">
+        <v>44033</v>
+      </c>
+      <c r="G659" s="6">
+        <v>21648</v>
+      </c>
+      <c r="H659" s="2"/>
+      <c r="I659" s="2"/>
+      <c r="J659" s="2"/>
+      <c r="K659" s="2"/>
+      <c r="L659" s="3"/>
+      <c r="M659" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N659" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="660" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A660" s="3">
+        <v>905405616</v>
+      </c>
+      <c r="B660" s="3">
+        <v>31592057</v>
+      </c>
+      <c r="C660" s="2" t="s">
+        <v>2365</v>
+      </c>
+      <c r="D660" s="2" t="s">
+        <v>2366</v>
+      </c>
+      <c r="E660" s="3" t="s">
+        <v>1734</v>
+      </c>
+      <c r="F660" s="4">
+        <v>44034</v>
+      </c>
+      <c r="G660" s="6">
+        <v>21648</v>
+      </c>
+      <c r="H660" s="2" t="s">
+        <v>2361</v>
+      </c>
+      <c r="I660" s="2"/>
+      <c r="J660" s="2"/>
+      <c r="K660" s="2" t="s">
+        <v>2367</v>
+      </c>
+      <c r="L660" s="3"/>
+      <c r="M660" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N660" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="661" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A661" s="3">
+        <v>905405730</v>
+      </c>
+      <c r="B661" s="3">
+        <v>31592354</v>
+      </c>
+      <c r="C661" s="2" t="s">
+        <v>2368</v>
+      </c>
+      <c r="D661" s="2" t="s">
+        <v>2369</v>
+      </c>
+      <c r="E661" s="3" t="s">
+        <v>1740</v>
+      </c>
+      <c r="F661" s="4">
+        <v>44033</v>
+      </c>
+      <c r="G661" s="6">
+        <v>20918</v>
+      </c>
+      <c r="H661" s="2"/>
+      <c r="I661" s="2"/>
+      <c r="J661" s="2"/>
+      <c r="K661" s="2"/>
+      <c r="L661" s="3"/>
+      <c r="M661" s="3" t="s">
+        <v>2269</v>
+      </c>
+      <c r="N661" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="662" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A662" s="3"/>
+      <c r="B662" s="3"/>
+      <c r="C662" s="2"/>
+      <c r="D662" s="2"/>
+      <c r="E662" s="3" t="s">
+        <v>1740</v>
+      </c>
+      <c r="F662" s="4">
+        <v>44043</v>
+      </c>
+      <c r="G662" s="6">
+        <v>20990</v>
+      </c>
+      <c r="H662" s="2" t="s">
+        <v>1783</v>
+      </c>
+      <c r="I662" s="2"/>
+      <c r="J662" s="2"/>
+      <c r="K662" s="2" t="s">
+        <v>2370</v>
+      </c>
+      <c r="L662" s="3"/>
+      <c r="M662" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N662" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="663" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A663" s="3">
+        <v>905415392</v>
+      </c>
+      <c r="B663" s="3">
+        <v>31596403</v>
+      </c>
+      <c r="C663" s="2" t="s">
+        <v>2371</v>
+      </c>
+      <c r="D663" s="2" t="s">
+        <v>2372</v>
+      </c>
+      <c r="E663" s="3" t="s">
+        <v>1740</v>
+      </c>
+      <c r="F663" s="4">
+        <v>44043</v>
+      </c>
+      <c r="G663" s="6">
+        <v>20990</v>
+      </c>
+      <c r="H663" s="2"/>
+      <c r="I663" s="2"/>
+      <c r="J663" s="2"/>
+      <c r="K663" s="2"/>
+      <c r="L663" s="3"/>
+      <c r="M663" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N663" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="664" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A664" s="3"/>
+      <c r="B664" s="3"/>
+      <c r="C664" s="2"/>
+      <c r="D664" s="2"/>
+      <c r="E664" s="3" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F664" s="4">
+        <v>44037</v>
+      </c>
+      <c r="G664" s="6">
+        <v>18351</v>
+      </c>
+      <c r="H664" s="2" t="s">
+        <v>2373</v>
+      </c>
+      <c r="I664" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J664" s="2"/>
+      <c r="K664" s="2" t="s">
+        <v>2374</v>
+      </c>
+      <c r="L664" s="3"/>
+      <c r="M664" s="3" t="s">
+        <v>2272</v>
+      </c>
+      <c r="N664" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="665" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A665" s="3">
+        <v>905409903</v>
+      </c>
+      <c r="B665" s="3">
+        <v>31593639</v>
+      </c>
+      <c r="C665" s="2" t="s">
+        <v>2375</v>
+      </c>
+      <c r="D665" s="2" t="s">
+        <v>2376</v>
+      </c>
+      <c r="E665" s="3" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F665" s="4">
+        <v>44037</v>
+      </c>
+      <c r="G665" s="6">
+        <v>18351</v>
+      </c>
+      <c r="H665" s="2" t="s">
+        <v>2377</v>
+      </c>
+      <c r="I665" s="2"/>
+      <c r="J665" s="2"/>
+      <c r="K665" s="2" t="s">
+        <v>2378</v>
+      </c>
+      <c r="L665" s="3"/>
+      <c r="M665" s="3" t="s">
+        <v>2272</v>
+      </c>
+      <c r="N665" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="666" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A666" s="3">
+        <v>905386932</v>
+      </c>
+      <c r="B666" s="3">
+        <v>31585872</v>
+      </c>
+      <c r="C666" s="2" t="s">
+        <v>2379</v>
+      </c>
+      <c r="D666" s="2" t="s">
+        <v>2380</v>
+      </c>
+      <c r="E666" s="3" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F666" s="4">
+        <v>44015</v>
+      </c>
+      <c r="G666" s="6">
+        <v>14201</v>
+      </c>
+      <c r="H666" s="2"/>
+      <c r="I666" s="2"/>
+      <c r="J666" s="2"/>
+      <c r="K666" s="2"/>
+      <c r="L666" s="3"/>
+      <c r="M666" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N666" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="667" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A667" s="3">
+        <v>905413977</v>
+      </c>
+      <c r="B667" s="3">
+        <v>31595499</v>
+      </c>
+      <c r="C667" s="2" t="s">
+        <v>2381</v>
+      </c>
+      <c r="D667" s="2" t="s">
+        <v>2382</v>
+      </c>
+      <c r="E667" s="3" t="s">
+        <v>1738</v>
+      </c>
+      <c r="F667" s="4">
+        <v>44041</v>
+      </c>
+      <c r="G667" s="6">
+        <v>14486</v>
+      </c>
+      <c r="H667" s="2"/>
+      <c r="I667" s="2"/>
+      <c r="J667" s="2"/>
+      <c r="K667" s="2"/>
+      <c r="L667" s="3"/>
+      <c r="M667" s="3" t="s">
+        <v>2269</v>
+      </c>
+      <c r="N667" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="668" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A668" s="3">
+        <v>905388588</v>
+      </c>
+      <c r="B668" s="3">
+        <v>31585949</v>
+      </c>
+      <c r="C668" s="2" t="s">
+        <v>2383</v>
+      </c>
+      <c r="D668" s="2" t="s">
+        <v>2384</v>
+      </c>
+      <c r="E668" s="3" t="s">
+        <v>1724</v>
+      </c>
+      <c r="F668" s="4">
+        <v>44016</v>
+      </c>
+      <c r="G668" s="6">
+        <v>12206</v>
+      </c>
+      <c r="H668" s="2"/>
+      <c r="I668" s="2"/>
+      <c r="J668" s="2"/>
+      <c r="K668" s="2"/>
+      <c r="L668" s="3"/>
+      <c r="M668" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="N668" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="M538:M639 M2:M536">
     <cfRule type="containsBlanks" dxfId="5" priority="6">
@@ -30107,22 +30766,22 @@
       <formula>LEN(TRIM(M537))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N651">
+  <conditionalFormatting sqref="N2:N668">
     <cfRule type="notContainsText" dxfId="3" priority="1" operator="notContains" text="old">
       <formula>ISERROR(SEARCH("old",N2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B651">
-    <cfRule type="duplicateValues" dxfId="2" priority="47"/>
+  <conditionalFormatting sqref="B2:B668">
+    <cfRule type="duplicateValues" dxfId="2" priority="59"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H651">
-    <cfRule type="duplicateValues" dxfId="1" priority="49"/>
+  <conditionalFormatting sqref="H2:H668">
+    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J651">
-    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+  <conditionalFormatting sqref="J2:J668">
+    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M651" xr:uid="{B18D0AFF-BE85-4C42-A36A-788B2F2EBE38}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M668" xr:uid="{B18D0AFF-BE85-4C42-A36A-788B2F2EBE38}">
       <formula1>"Front, Mid, Rear, Dumpbody, Deck, Other, Handrails, Unknown, x"</formula1>
     </dataValidation>
   </dataValidations>

--- a/smseventlog/data/csv/FH Frame Cracks History.xlsx
+++ b/smseventlog/data/csv/FH Frame Cracks History.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jayme/OneDrive/Python/SMS/smseventlog/data/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2CA760-D336-3A4A-8F48-42F5EA08BF1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B91AFF-50AD-A546-907B-0E3E03747C9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-48860" yWindow="2960" windowWidth="43360" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined" sheetId="5" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7054" uniqueCount="2385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7125" uniqueCount="2411">
   <si>
     <t/>
   </si>
@@ -7225,6 +7225,84 @@
   </si>
   <si>
     <t>F0345-POWRTRN-ENGSYS-INTAKE_EXHAUST</t>
+  </si>
+  <si>
+    <t>F0301 - Frame Cracks</t>
+  </si>
+  <si>
+    <t>Frame Crack - LHS top frame rail near hoist cylinder</t>
+  </si>
+  <si>
+    <t>Frame inspection, pictures and downloads in folder (mid)</t>
+  </si>
+  <si>
+    <t>FC 16H041-1 - Fuel Tank Frame Mount Cracking</t>
+  </si>
+  <si>
+    <t>(mid)</t>
+  </si>
+  <si>
+    <t>FC 19H088-1 - Hydraulic Tank Mount Cracking</t>
+  </si>
+  <si>
+    <t>Repaired by SMS - Pictures and frame inspection in folder for hyd tank mount. Downloads in folder - DH (mid)</t>
+  </si>
+  <si>
+    <t>F0305 - Fuel Tank Mount Cracks</t>
+  </si>
+  <si>
+    <t>Crack fully repaired by SMS. Required documentation in folder - DH (mid)</t>
+  </si>
+  <si>
+    <t>F0306- Repair Frame Crack RHS</t>
+  </si>
+  <si>
+    <t>F0306-STRUCTR-FRMGRP-MAINFRAME</t>
+  </si>
+  <si>
+    <t>RH Frame Crack</t>
+  </si>
+  <si>
+    <t>2020-08-30 SL- Complete (mid)</t>
+  </si>
+  <si>
+    <t>Frame crack - 1.5" Above steering cylinder mount</t>
+  </si>
+  <si>
+    <t>Frame cracks found during welding inspection (mid)</t>
+  </si>
+  <si>
+    <t>USAAB202008766</t>
+  </si>
+  <si>
+    <t>F326- Crack on Lower Accumulator Bracket</t>
+  </si>
+  <si>
+    <t>F0326-STRUCTR-FRMGRP-MAINFRAME</t>
+  </si>
+  <si>
+    <t>F0332- Repair frame cracks</t>
+  </si>
+  <si>
+    <t>F0332-STRUCTR-FRMGRP-MAINFRAME</t>
+  </si>
+  <si>
+    <t>Frame Crack Front L/H</t>
+  </si>
+  <si>
+    <t>2020-08-27- Crack repair complete (front)</t>
+  </si>
+  <si>
+    <t>F0336 REPAIR REAR FUEL TANK MOUNT CRACK</t>
+  </si>
+  <si>
+    <t>F0336-STRUCTR-FRMGRP-MAINFRAME</t>
+  </si>
+  <si>
+    <t>6" crack, LHS front of steering accumulator.</t>
+  </si>
+  <si>
+    <t>USAAB202008776</t>
   </si>
 </sst>
 </file>
@@ -7450,8 +7528,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DB9EB3ED-A5AE-A14F-BE41-6F70A132F98A}" name="Table8" displayName="Table8" ref="A1:N668" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="A1:N668" xr:uid="{770DCF22-4040-4F45-A195-204E915BAAAB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DB9EB3ED-A5AE-A14F-BE41-6F70A132F98A}" name="Table8" displayName="Table8" ref="A1:N680" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="A1:N680" xr:uid="{770DCF22-4040-4F45-A195-204E915BAAAB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N651">
     <sortCondition ref="E2:E651"/>
     <sortCondition ref="F2:F651"/>
@@ -7816,10 +7894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F275D9-6D58-E546-9951-5DFEA9FF85BC}">
-  <dimension ref="A1:N668"/>
+  <dimension ref="A1:N680"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D647" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N651" sqref="N651:N668"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A663" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N670" sqref="N669:N680"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30755,6 +30833,416 @@
         <v>2320</v>
       </c>
     </row>
+    <row r="669" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A669" s="3">
+        <v>905432851</v>
+      </c>
+      <c r="B669" s="3">
+        <v>31602264</v>
+      </c>
+      <c r="C669" s="2" t="s">
+        <v>2385</v>
+      </c>
+      <c r="D669" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="E669" s="3" t="s">
+        <v>1732</v>
+      </c>
+      <c r="F669" s="4">
+        <v>44061</v>
+      </c>
+      <c r="G669" s="6">
+        <v>24965</v>
+      </c>
+      <c r="H669" s="2" t="s">
+        <v>2386</v>
+      </c>
+      <c r="I669" s="2"/>
+      <c r="J669" s="2"/>
+      <c r="K669" s="2" t="s">
+        <v>2387</v>
+      </c>
+      <c r="L669" s="3"/>
+      <c r="M669" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N669" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="670" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A670" s="3"/>
+      <c r="B670" s="3"/>
+      <c r="C670" s="2"/>
+      <c r="D670" s="2"/>
+      <c r="E670" s="3" t="s">
+        <v>1732</v>
+      </c>
+      <c r="F670" s="4">
+        <v>44074</v>
+      </c>
+      <c r="G670" s="6">
+        <v>25182</v>
+      </c>
+      <c r="H670" s="2" t="s">
+        <v>2388</v>
+      </c>
+      <c r="I670" s="2"/>
+      <c r="J670" s="2"/>
+      <c r="K670" s="2" t="s">
+        <v>2389</v>
+      </c>
+      <c r="L670" s="3"/>
+      <c r="M670" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N670" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="671" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A671" s="3"/>
+      <c r="B671" s="3"/>
+      <c r="C671" s="2"/>
+      <c r="D671" s="2"/>
+      <c r="E671" s="3" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F671" s="4">
+        <v>44064</v>
+      </c>
+      <c r="G671" s="6">
+        <v>24454</v>
+      </c>
+      <c r="H671" s="2" t="s">
+        <v>2390</v>
+      </c>
+      <c r="I671" s="2"/>
+      <c r="J671" s="2"/>
+      <c r="K671" s="2" t="s">
+        <v>2391</v>
+      </c>
+      <c r="L671" s="3"/>
+      <c r="M671" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N671" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="672" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A672" s="3">
+        <v>905436782</v>
+      </c>
+      <c r="B672" s="3">
+        <v>31604049</v>
+      </c>
+      <c r="C672" s="2" t="s">
+        <v>2392</v>
+      </c>
+      <c r="D672" s="2" t="s">
+        <v>2334</v>
+      </c>
+      <c r="E672" s="3" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F672" s="4">
+        <v>44067</v>
+      </c>
+      <c r="G672" s="6">
+        <v>24455</v>
+      </c>
+      <c r="H672" s="2" t="s">
+        <v>1945</v>
+      </c>
+      <c r="I672" s="2"/>
+      <c r="J672" s="2"/>
+      <c r="K672" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="L672" s="3"/>
+      <c r="M672" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N672" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="673" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A673" s="3">
+        <v>905443133</v>
+      </c>
+      <c r="B673" s="3"/>
+      <c r="C673" s="2" t="s">
+        <v>2394</v>
+      </c>
+      <c r="D673" s="2" t="s">
+        <v>2395</v>
+      </c>
+      <c r="E673" s="3" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F673" s="4">
+        <v>44072</v>
+      </c>
+      <c r="G673" s="6">
+        <v>24758</v>
+      </c>
+      <c r="H673" s="2"/>
+      <c r="I673" s="2"/>
+      <c r="J673" s="2"/>
+      <c r="K673" s="2"/>
+      <c r="L673" s="3"/>
+      <c r="M673" s="3" t="s">
+        <v>2269</v>
+      </c>
+      <c r="N673" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="674" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A674" s="3"/>
+      <c r="B674" s="3">
+        <v>46638385</v>
+      </c>
+      <c r="C674" s="2"/>
+      <c r="D674" s="2"/>
+      <c r="E674" s="3" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F674" s="4">
+        <v>44072</v>
+      </c>
+      <c r="G674" s="6">
+        <v>24758</v>
+      </c>
+      <c r="H674" s="2" t="s">
+        <v>2396</v>
+      </c>
+      <c r="I674" s="2"/>
+      <c r="J674" s="2"/>
+      <c r="K674" s="2" t="s">
+        <v>2397</v>
+      </c>
+      <c r="L674" s="3"/>
+      <c r="M674" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N674" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="675" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A675" s="3"/>
+      <c r="B675" s="3"/>
+      <c r="C675" s="2"/>
+      <c r="D675" s="2"/>
+      <c r="E675" s="3" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F675" s="4">
+        <v>44062</v>
+      </c>
+      <c r="G675" s="6">
+        <v>23095</v>
+      </c>
+      <c r="H675" s="2" t="s">
+        <v>2398</v>
+      </c>
+      <c r="I675" s="2"/>
+      <c r="J675" s="2"/>
+      <c r="K675" s="2" t="s">
+        <v>2389</v>
+      </c>
+      <c r="L675" s="3"/>
+      <c r="M675" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N675" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="676" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A676" s="3"/>
+      <c r="B676" s="3">
+        <v>46628733</v>
+      </c>
+      <c r="C676" s="2"/>
+      <c r="D676" s="2"/>
+      <c r="E676" s="3" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F676" s="4">
+        <v>44047</v>
+      </c>
+      <c r="G676" s="6">
+        <v>22873</v>
+      </c>
+      <c r="H676" s="2" t="s">
+        <v>1783</v>
+      </c>
+      <c r="I676" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J676" s="2"/>
+      <c r="K676" s="2" t="s">
+        <v>2399</v>
+      </c>
+      <c r="L676" s="3" t="s">
+        <v>2400</v>
+      </c>
+      <c r="M676" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N676" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="677" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A677" s="3">
+        <v>905429899</v>
+      </c>
+      <c r="B677" s="3">
+        <v>31601365</v>
+      </c>
+      <c r="C677" s="2" t="s">
+        <v>2401</v>
+      </c>
+      <c r="D677" s="2" t="s">
+        <v>2402</v>
+      </c>
+      <c r="E677" s="3" t="s">
+        <v>1710</v>
+      </c>
+      <c r="F677" s="4">
+        <v>44058</v>
+      </c>
+      <c r="G677" s="6">
+        <v>17858</v>
+      </c>
+      <c r="H677" s="2"/>
+      <c r="I677" s="2"/>
+      <c r="J677" s="2"/>
+      <c r="K677" s="2"/>
+      <c r="L677" s="3"/>
+      <c r="M677" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N677" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="678" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A678" s="3">
+        <v>905439833</v>
+      </c>
+      <c r="B678" s="3">
+        <v>31604839</v>
+      </c>
+      <c r="C678" s="2" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D678" s="2" t="s">
+        <v>2404</v>
+      </c>
+      <c r="E678" s="3" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F678" s="4">
+        <v>44070</v>
+      </c>
+      <c r="G678" s="6">
+        <v>17460</v>
+      </c>
+      <c r="H678" s="2" t="s">
+        <v>2405</v>
+      </c>
+      <c r="I678" s="2"/>
+      <c r="J678" s="2"/>
+      <c r="K678" s="2" t="s">
+        <v>2406</v>
+      </c>
+      <c r="L678" s="3"/>
+      <c r="M678" s="3" t="s">
+        <v>2272</v>
+      </c>
+      <c r="N678" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="679" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A679" s="3">
+        <v>905423826</v>
+      </c>
+      <c r="B679" s="3">
+        <v>31599034</v>
+      </c>
+      <c r="C679" s="2" t="s">
+        <v>2407</v>
+      </c>
+      <c r="D679" s="2" t="s">
+        <v>2408</v>
+      </c>
+      <c r="E679" s="3" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F679" s="4">
+        <v>44052</v>
+      </c>
+      <c r="G679" s="6">
+        <v>16639</v>
+      </c>
+      <c r="H679" s="2"/>
+      <c r="I679" s="2"/>
+      <c r="J679" s="2"/>
+      <c r="K679" s="2"/>
+      <c r="L679" s="3"/>
+      <c r="M679" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N679" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="680" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A680" s="3"/>
+      <c r="B680" s="3">
+        <v>46628367</v>
+      </c>
+      <c r="C680" s="2"/>
+      <c r="D680" s="2"/>
+      <c r="E680" s="3" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F680" s="4">
+        <v>44048</v>
+      </c>
+      <c r="G680" s="6">
+        <v>15778</v>
+      </c>
+      <c r="H680" s="2" t="s">
+        <v>1783</v>
+      </c>
+      <c r="I680" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J680" s="2" t="s">
+        <v>2409</v>
+      </c>
+      <c r="K680" s="2" t="s">
+        <v>2389</v>
+      </c>
+      <c r="L680" s="3" t="s">
+        <v>2410</v>
+      </c>
+      <c r="M680" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N680" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="M538:M639 M2:M536">
     <cfRule type="containsBlanks" dxfId="5" priority="6">
@@ -30766,22 +31254,22 @@
       <formula>LEN(TRIM(M537))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N668">
+  <conditionalFormatting sqref="N2:N680">
     <cfRule type="notContainsText" dxfId="3" priority="1" operator="notContains" text="old">
       <formula>ISERROR(SEARCH("old",N2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B668">
-    <cfRule type="duplicateValues" dxfId="2" priority="59"/>
+  <conditionalFormatting sqref="B2:B680">
+    <cfRule type="duplicateValues" dxfId="2" priority="62"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H668">
-    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
+  <conditionalFormatting sqref="H2:H680">
+    <cfRule type="duplicateValues" dxfId="1" priority="63"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J668">
-    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
+  <conditionalFormatting sqref="J2:J680">
+    <cfRule type="duplicateValues" dxfId="0" priority="64"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M668" xr:uid="{B18D0AFF-BE85-4C42-A36A-788B2F2EBE38}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M680" xr:uid="{B18D0AFF-BE85-4C42-A36A-788B2F2EBE38}">
       <formula1>"Front, Mid, Rear, Dumpbody, Deck, Other, Handrails, Unknown, x"</formula1>
     </dataValidation>
   </dataValidations>

--- a/smseventlog/data/csv/FH Frame Cracks History.xlsx
+++ b/smseventlog/data/csv/FH Frame Cracks History.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10930"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jayme/OneDrive/Python/SMS/smseventlog/data/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B91AFF-50AD-A546-907B-0E3E03747C9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC13579-D2C8-524A-965E-E00A7C1A7894}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48860" yWindow="2960" windowWidth="43360" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined" sheetId="5" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7125" uniqueCount="2411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7217" uniqueCount="2441">
   <si>
     <t/>
   </si>
@@ -7303,6 +7303,96 @@
   </si>
   <si>
     <t>USAAB202008776</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>F0308 - Repair dump body cracks</t>
+  </si>
+  <si>
+    <t>F0308-STRUCTR-BODYGP-DUMPBODY</t>
+  </si>
+  <si>
+    <t>left_only</t>
+  </si>
+  <si>
+    <t>F0313 - REPAIR FRAME CRACK</t>
+  </si>
+  <si>
+    <t>F0313-STRUCTR-FRMGRP-MAINFRAME</t>
+  </si>
+  <si>
+    <t>Frame Crack - RHS Behind Accumulators</t>
+  </si>
+  <si>
+    <t>Downloads, frame inspection and pictures in folder (mid)</t>
+  </si>
+  <si>
+    <t>USAAB202009809</t>
+  </si>
+  <si>
+    <t>FC 19H086-2 - Frame Cracking Inspection Repairs</t>
+  </si>
+  <si>
+    <t>Frame inspection, downloads and pictures in folder (mid)</t>
+  </si>
+  <si>
+    <t>Frame inspection in folder. All photos in folder. Downloads in folder (mid)</t>
+  </si>
+  <si>
+    <t>F0315 Repair Hydraulic Tank Mount Crack</t>
+  </si>
+  <si>
+    <t>Frame Crack, RH Side</t>
+  </si>
+  <si>
+    <t>F0317 - REPAIR CRACKED HYD TANK MOUNT</t>
+  </si>
+  <si>
+    <t>F0317-HYDRSYS-HYDTNK</t>
+  </si>
+  <si>
+    <t>F0317 - REPAIR CRACKED FUEL TANK MOUNT</t>
+  </si>
+  <si>
+    <t>Downloads, frame inspection and pictures up to crack being gouged in folder (mid)</t>
+  </si>
+  <si>
+    <t>Repair completed. Frame inspection, pictures and downloads in folder - DH (mid)</t>
+  </si>
+  <si>
+    <t>Frame inspection sheet in folder. No downloads available (cab damaged in early 2020. May be available in 1-2 weeks as repairs in progress). Pictures in folder - DH (mid)</t>
+  </si>
+  <si>
+    <t>F0323 REPAIR LH HOIST MOUNT CRACK</t>
+  </si>
+  <si>
+    <t>F0323-STRUCTR-BODYGP-DUMPBODY</t>
+  </si>
+  <si>
+    <t>F0326 LH Accumulater Bracket  Crack</t>
+  </si>
+  <si>
+    <t>Frame Crack Repair</t>
+  </si>
+  <si>
+    <t>right_only</t>
+  </si>
+  <si>
+    <t>Frame Crack - 6 Inch LHS Upper Frame Behind Int Torque Tube</t>
+  </si>
+  <si>
+    <t>F0334 INSPECT LH FRAME CRACK (FIELD)</t>
+  </si>
+  <si>
+    <t>F0334-STRUCTR-FRMGRP-MAINFRAME</t>
+  </si>
+  <si>
+    <t>F0334 FRAME CRACK REPAIR</t>
+  </si>
+  <si>
+    <t>Crack located on rear fuel tank hanger (mid)</t>
   </si>
 </sst>
 </file>
@@ -7360,7 +7450,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="33">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7388,6 +7478,66 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7528,27 +7678,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DB9EB3ED-A5AE-A14F-BE41-6F70A132F98A}" name="Table8" displayName="Table8" ref="A1:N680" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="A1:N680" xr:uid="{770DCF22-4040-4F45-A195-204E915BAAAB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DB9EB3ED-A5AE-A14F-BE41-6F70A132F98A}" name="Table8" displayName="Table8" ref="A1:N696" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="A1:N696" xr:uid="{770DCF22-4040-4F45-A195-204E915BAAAB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N651">
     <sortCondition ref="E2:E651"/>
     <sortCondition ref="F2:F651"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="2" xr3:uid="{53D3D3F1-E0BA-4340-9121-6CFC3A6BBED5}" name="Notification" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{942C54F4-1B74-F744-8422-CE3A00D63E29}" name="Order" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{CE58EB44-0294-A540-BADC-B330250F9D5A}" name="Description" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{A16A2E72-CB27-B343-9AC7-2F2C99794968}" name="Functional Loc." dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{17079771-16C4-994F-84E9-FE41B9EA26CA}" name="Unit" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{67C2E32D-1CB5-6A49-ABE3-6BBF2F8E1295}" name="Date" dataDxfId="19"/>
-    <tableColumn id="15" xr3:uid="{A27D90CC-5D75-B846-93C6-6ED559BA716C}" name="SMR" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{34E85FBD-6591-4C45-A9D2-90532A4D7F9B}" name="Title" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{C8E47BC8-1926-E449-8B19-6F8C56C2D6D4}" name="TSIPartName" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{D6107AB1-CB21-8F4F-951F-418588B08388}" name="TSIDetails" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{15A9F08F-8238-954D-BA0F-85456896E2F2}" name="WOComments" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{C5867ABD-2C68-284B-9E81-485D59D68A26}" name="TSINumber" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{C16E5D52-8FF8-714E-B524-0088F6DF5EDB}" name="Location" dataDxfId="12"/>
-    <tableColumn id="1" xr3:uid="{0509EBCD-9CB8-BB4E-8D44-049AB3209895}" name="_merge" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{53D3D3F1-E0BA-4340-9121-6CFC3A6BBED5}" name="Notification" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{942C54F4-1B74-F744-8422-CE3A00D63E29}" name="Order" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{CE58EB44-0294-A540-BADC-B330250F9D5A}" name="Description" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{A16A2E72-CB27-B343-9AC7-2F2C99794968}" name="Functional Loc." dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{17079771-16C4-994F-84E9-FE41B9EA26CA}" name="Unit" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{67C2E32D-1CB5-6A49-ABE3-6BBF2F8E1295}" name="Date" dataDxfId="25"/>
+    <tableColumn id="15" xr3:uid="{A27D90CC-5D75-B846-93C6-6ED559BA716C}" name="SMR" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{34E85FBD-6591-4C45-A9D2-90532A4D7F9B}" name="Title" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{C8E47BC8-1926-E449-8B19-6F8C56C2D6D4}" name="TSIPartName" dataDxfId="22"/>
+    <tableColumn id="11" xr3:uid="{D6107AB1-CB21-8F4F-951F-418588B08388}" name="TSIDetails" dataDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{15A9F08F-8238-954D-BA0F-85456896E2F2}" name="WOComments" dataDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{C5867ABD-2C68-284B-9E81-485D59D68A26}" name="TSINumber" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{C16E5D52-8FF8-714E-B524-0088F6DF5EDB}" name="Location" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{0509EBCD-9CB8-BB4E-8D44-049AB3209895}" name="_merge" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7564,7 +7714,7 @@
     <tableColumn id="2" xr3:uid="{8BEF7178-E3B4-D149-A75C-2EC7E1E9CBA7}" name="Notification"/>
     <tableColumn id="3" xr3:uid="{11DB8A07-87AD-FE46-8761-2170FE8BBA14}" name="Order"/>
     <tableColumn id="4" xr3:uid="{BBFD0320-2E12-F24A-805F-F04232B9497B}" name="Description2"/>
-    <tableColumn id="5" xr3:uid="{85588FB8-9272-344F-8515-99C3D899FF2A}" name="Created on" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{85588FB8-9272-344F-8515-99C3D899FF2A}" name="Created on" dataDxfId="16"/>
     <tableColumn id="6" xr3:uid="{FC0BCB59-BFC5-0643-9D08-977DACD51993}" name="Functional Loc."/>
     <tableColumn id="7" xr3:uid="{016A5D1D-804A-2249-9172-09491E3480EC}" name="Location"/>
     <tableColumn id="9" xr3:uid="{C484CC0E-6555-E74D-8560-E8B5B04E61D3}" name="Unit"/>
@@ -7894,25 +8044,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F275D9-6D58-E546-9951-5DFEA9FF85BC}">
-  <dimension ref="A1:N680"/>
+  <dimension ref="A1:N696"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A663" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N670" sqref="N669:N680"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A685" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F697" sqref="F697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5" customWidth="1"/>
-    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.83203125" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="31.83203125" customWidth="1"/>
-    <col min="11" max="11" width="48.5" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="38" customWidth="1"/>
     <col min="12" max="12" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.6640625" customWidth="1"/>
   </cols>
@@ -31243,33 +31393,601 @@
         <v>2320</v>
       </c>
     </row>
+    <row r="681" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A681" s="3">
+        <v>905443133</v>
+      </c>
+      <c r="B681" s="3"/>
+      <c r="C681" s="2" t="s">
+        <v>2394</v>
+      </c>
+      <c r="D681" s="2" t="s">
+        <v>2395</v>
+      </c>
+      <c r="E681" s="3" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F681" s="4">
+        <v>44072</v>
+      </c>
+      <c r="G681" s="6">
+        <v>24818</v>
+      </c>
+      <c r="H681" s="2"/>
+      <c r="I681" s="2"/>
+      <c r="J681" s="2"/>
+      <c r="K681" s="2"/>
+      <c r="L681" s="3"/>
+      <c r="M681" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N681" s="2" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="682" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A682" s="3">
+        <v>905453098</v>
+      </c>
+      <c r="B682" s="3">
+        <v>31609519</v>
+      </c>
+      <c r="C682" s="2" t="s">
+        <v>2412</v>
+      </c>
+      <c r="D682" s="2" t="s">
+        <v>2413</v>
+      </c>
+      <c r="E682" s="3" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F682" s="4">
+        <v>44082</v>
+      </c>
+      <c r="G682" s="6">
+        <v>24609</v>
+      </c>
+      <c r="H682" s="2"/>
+      <c r="I682" s="2"/>
+      <c r="J682" s="2"/>
+      <c r="K682" s="2"/>
+      <c r="L682" s="3"/>
+      <c r="M682" s="3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="N682" s="2" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="683" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A683" s="3">
+        <v>905453039</v>
+      </c>
+      <c r="B683" s="3">
+        <v>31609966</v>
+      </c>
+      <c r="C683" s="2" t="s">
+        <v>2415</v>
+      </c>
+      <c r="D683" s="2" t="s">
+        <v>2416</v>
+      </c>
+      <c r="E683" s="3" t="s">
+        <v>1703</v>
+      </c>
+      <c r="F683" s="4">
+        <v>44082</v>
+      </c>
+      <c r="G683" s="6">
+        <v>23777</v>
+      </c>
+      <c r="H683" s="2" t="s">
+        <v>2417</v>
+      </c>
+      <c r="I683" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J683" s="2"/>
+      <c r="K683" s="2" t="s">
+        <v>2418</v>
+      </c>
+      <c r="L683" s="3" t="s">
+        <v>2419</v>
+      </c>
+      <c r="M683" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N683" s="2" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="684" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A684" s="3"/>
+      <c r="B684" s="3"/>
+      <c r="C684" s="2"/>
+      <c r="D684" s="2"/>
+      <c r="E684" s="3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F684" s="4">
+        <v>44090</v>
+      </c>
+      <c r="G684" s="6">
+        <v>22579</v>
+      </c>
+      <c r="H684" s="2" t="s">
+        <v>2420</v>
+      </c>
+      <c r="I684" s="2"/>
+      <c r="J684" s="2"/>
+      <c r="K684" s="2" t="s">
+        <v>2421</v>
+      </c>
+      <c r="L684" s="3"/>
+      <c r="M684" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N684" s="2" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="685" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A685" s="3">
+        <v>905462695</v>
+      </c>
+      <c r="B685" s="3">
+        <v>31613896</v>
+      </c>
+      <c r="C685" s="2" t="s">
+        <v>2423</v>
+      </c>
+      <c r="D685" s="2" t="s">
+        <v>2360</v>
+      </c>
+      <c r="E685" s="3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F685" s="4">
+        <v>44090</v>
+      </c>
+      <c r="G685" s="6">
+        <v>22579</v>
+      </c>
+      <c r="H685" s="2" t="s">
+        <v>2390</v>
+      </c>
+      <c r="I685" s="2"/>
+      <c r="J685" s="2"/>
+      <c r="K685" s="2" t="s">
+        <v>2422</v>
+      </c>
+      <c r="L685" s="3"/>
+      <c r="M685" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N685" s="2" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="686" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A686" s="3"/>
+      <c r="B686" s="3"/>
+      <c r="C686" s="2"/>
+      <c r="D686" s="2"/>
+      <c r="E686" s="3" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F686" s="4">
+        <v>44101</v>
+      </c>
+      <c r="G686" s="6">
+        <v>22282</v>
+      </c>
+      <c r="H686" s="2" t="s">
+        <v>2424</v>
+      </c>
+      <c r="I686" s="2"/>
+      <c r="J686" s="2"/>
+      <c r="K686" s="2" t="s">
+        <v>2389</v>
+      </c>
+      <c r="L686" s="3"/>
+      <c r="M686" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N686" s="2" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="687" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A687" s="3">
+        <v>905460547</v>
+      </c>
+      <c r="B687" s="3">
+        <v>31613027</v>
+      </c>
+      <c r="C687" s="2" t="s">
+        <v>2425</v>
+      </c>
+      <c r="D687" s="2" t="s">
+        <v>2426</v>
+      </c>
+      <c r="E687" s="3" t="s">
+        <v>1734</v>
+      </c>
+      <c r="F687" s="4">
+        <v>44089</v>
+      </c>
+      <c r="G687" s="6">
+        <v>22531</v>
+      </c>
+      <c r="H687" s="2" t="s">
+        <v>2390</v>
+      </c>
+      <c r="I687" s="2"/>
+      <c r="J687" s="2"/>
+      <c r="K687" s="2" t="s">
+        <v>2428</v>
+      </c>
+      <c r="L687" s="3"/>
+      <c r="M687" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N687" s="2" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="688" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A688" s="3">
+        <v>905460560</v>
+      </c>
+      <c r="B688" s="3">
+        <v>31613030</v>
+      </c>
+      <c r="C688" s="2" t="s">
+        <v>2427</v>
+      </c>
+      <c r="D688" s="2" t="s">
+        <v>2366</v>
+      </c>
+      <c r="E688" s="3" t="s">
+        <v>1734</v>
+      </c>
+      <c r="F688" s="4">
+        <v>44091</v>
+      </c>
+      <c r="G688" s="6">
+        <v>22531</v>
+      </c>
+      <c r="H688" s="2" t="s">
+        <v>1945</v>
+      </c>
+      <c r="I688" s="2"/>
+      <c r="J688" s="2"/>
+      <c r="K688" s="2" t="s">
+        <v>2429</v>
+      </c>
+      <c r="L688" s="3"/>
+      <c r="M688" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N688" s="2" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="689" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A689" s="3"/>
+      <c r="B689" s="3"/>
+      <c r="C689" s="2"/>
+      <c r="D689" s="2"/>
+      <c r="E689" s="3" t="s">
+        <v>1743</v>
+      </c>
+      <c r="F689" s="4">
+        <v>44088</v>
+      </c>
+      <c r="G689" s="6">
+        <v>17334</v>
+      </c>
+      <c r="H689" s="2" t="s">
+        <v>1945</v>
+      </c>
+      <c r="I689" s="2"/>
+      <c r="J689" s="2"/>
+      <c r="K689" s="2" t="s">
+        <v>2430</v>
+      </c>
+      <c r="L689" s="3"/>
+      <c r="M689" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N689" s="2" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="690" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A690" s="3">
+        <v>905466202</v>
+      </c>
+      <c r="B690" s="3">
+        <v>31615239</v>
+      </c>
+      <c r="C690" s="2" t="s">
+        <v>2431</v>
+      </c>
+      <c r="D690" s="2" t="s">
+        <v>2432</v>
+      </c>
+      <c r="E690" s="3" t="s">
+        <v>1701</v>
+      </c>
+      <c r="F690" s="4">
+        <v>44095</v>
+      </c>
+      <c r="G690" s="6">
+        <v>20062</v>
+      </c>
+      <c r="H690" s="2"/>
+      <c r="I690" s="2"/>
+      <c r="J690" s="2"/>
+      <c r="K690" s="2"/>
+      <c r="L690" s="3"/>
+      <c r="M690" s="3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="N690" s="2" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="691" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A691" s="3">
+        <v>905473197</v>
+      </c>
+      <c r="B691" s="3">
+        <v>31617698</v>
+      </c>
+      <c r="C691" s="2" t="s">
+        <v>2433</v>
+      </c>
+      <c r="D691" s="2" t="s">
+        <v>2402</v>
+      </c>
+      <c r="E691" s="3" t="s">
+        <v>1710</v>
+      </c>
+      <c r="F691" s="4">
+        <v>44101</v>
+      </c>
+      <c r="G691" s="6">
+        <v>17943</v>
+      </c>
+      <c r="H691" s="2"/>
+      <c r="I691" s="2"/>
+      <c r="J691" s="2"/>
+      <c r="K691" s="2"/>
+      <c r="L691" s="3"/>
+      <c r="M691" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N691" s="2" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="692" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A692" s="3"/>
+      <c r="B692" s="3">
+        <v>65103506</v>
+      </c>
+      <c r="C692" s="2"/>
+      <c r="D692" s="2"/>
+      <c r="E692" s="3" t="s">
+        <v>1710</v>
+      </c>
+      <c r="F692" s="4">
+        <v>44102</v>
+      </c>
+      <c r="G692" s="6">
+        <v>22282</v>
+      </c>
+      <c r="H692" s="2" t="s">
+        <v>2434</v>
+      </c>
+      <c r="I692" s="2"/>
+      <c r="J692" s="2"/>
+      <c r="K692" s="2" t="s">
+        <v>2389</v>
+      </c>
+      <c r="L692" s="3"/>
+      <c r="M692" s="3" t="s">
+        <v>2272</v>
+      </c>
+      <c r="N692" s="2" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="693" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A693" s="3">
+        <v>905477132</v>
+      </c>
+      <c r="B693" s="3">
+        <v>31619894</v>
+      </c>
+      <c r="C693" s="2" t="s">
+        <v>2437</v>
+      </c>
+      <c r="D693" s="2" t="s">
+        <v>2438</v>
+      </c>
+      <c r="E693" s="3" t="s">
+        <v>1735</v>
+      </c>
+      <c r="F693" s="4">
+        <v>44104</v>
+      </c>
+      <c r="G693" s="6">
+        <v>17962</v>
+      </c>
+      <c r="H693" s="2" t="s">
+        <v>2436</v>
+      </c>
+      <c r="I693" s="2"/>
+      <c r="J693" s="2"/>
+      <c r="K693" s="2" t="s">
+        <v>2389</v>
+      </c>
+      <c r="L693" s="3"/>
+      <c r="M693" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N693" s="2" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="694" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A694" s="3">
+        <v>905478033</v>
+      </c>
+      <c r="B694" s="3">
+        <v>31620292</v>
+      </c>
+      <c r="C694" s="2" t="s">
+        <v>2439</v>
+      </c>
+      <c r="D694" s="2" t="s">
+        <v>2438</v>
+      </c>
+      <c r="E694" s="3" t="s">
+        <v>1735</v>
+      </c>
+      <c r="F694" s="4">
+        <v>44105</v>
+      </c>
+      <c r="G694" s="6">
+        <v>17962</v>
+      </c>
+      <c r="H694" s="2"/>
+      <c r="I694" s="2"/>
+      <c r="J694" s="2"/>
+      <c r="K694" s="2"/>
+      <c r="L694" s="3"/>
+      <c r="M694" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N694" s="2" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="695" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A695" s="3"/>
+      <c r="B695" s="3">
+        <v>31594673</v>
+      </c>
+      <c r="C695" s="2"/>
+      <c r="D695" s="2"/>
+      <c r="E695" s="3" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F695" s="4">
+        <v>44091</v>
+      </c>
+      <c r="G695" s="6">
+        <v>17777</v>
+      </c>
+      <c r="H695" s="2" t="s">
+        <v>1945</v>
+      </c>
+      <c r="I695" s="2"/>
+      <c r="J695" s="2"/>
+      <c r="K695" s="2" t="s">
+        <v>2389</v>
+      </c>
+      <c r="L695" s="3"/>
+      <c r="M695" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N695" s="2" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="696" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A696" s="3"/>
+      <c r="B696" s="3"/>
+      <c r="C696" s="2"/>
+      <c r="D696" s="2"/>
+      <c r="E696" s="3" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F696" s="4">
+        <v>44107</v>
+      </c>
+      <c r="G696" s="6">
+        <v>17542</v>
+      </c>
+      <c r="H696" s="2" t="s">
+        <v>1945</v>
+      </c>
+      <c r="I696" s="2"/>
+      <c r="J696" s="2"/>
+      <c r="K696" s="2" t="s">
+        <v>2440</v>
+      </c>
+      <c r="L696" s="3"/>
+      <c r="M696" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N696" s="2" t="s">
+        <v>2411</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="M538:M639 M2:M536">
-    <cfRule type="containsBlanks" dxfId="5" priority="6">
+  <conditionalFormatting sqref="M2:M696">
+    <cfRule type="containsBlanks" dxfId="11" priority="13">
       <formula>LEN(TRIM(M2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M537">
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
+    <cfRule type="containsBlanks" dxfId="10" priority="12">
       <formula>LEN(TRIM(M537))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N680">
-    <cfRule type="notContainsText" dxfId="3" priority="1" operator="notContains" text="old">
+  <conditionalFormatting sqref="N2:N682 N684 N686:N696">
+    <cfRule type="notContainsText" dxfId="9" priority="8" operator="notContains" text="old">
       <formula>ISERROR(SEARCH("old",N2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B680">
-    <cfRule type="duplicateValues" dxfId="2" priority="62"/>
+  <conditionalFormatting sqref="N683">
+    <cfRule type="notContainsText" dxfId="8" priority="5" operator="notContains" text="old">
+      <formula>ISERROR(SEARCH("old",N683))</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H680">
-    <cfRule type="duplicateValues" dxfId="1" priority="63"/>
+  <conditionalFormatting sqref="H683">
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J680">
-    <cfRule type="duplicateValues" dxfId="0" priority="64"/>
+  <conditionalFormatting sqref="J683">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N685">
+    <cfRule type="notContainsText" dxfId="5" priority="2" operator="notContains" text="old">
+      <formula>ISERROR(SEARCH("old",N685))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H685">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J685">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H686:H696 H2:H682 H684">
+    <cfRule type="duplicateValues" dxfId="2" priority="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J686:J696 J2:J682 J684">
+    <cfRule type="duplicateValues" dxfId="1" priority="103"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B696">
+    <cfRule type="duplicateValues" dxfId="0" priority="106"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M680" xr:uid="{B18D0AFF-BE85-4C42-A36A-788B2F2EBE38}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M696" xr:uid="{B18D0AFF-BE85-4C42-A36A-788B2F2EBE38}">
       <formula1>"Front, Mid, Rear, Dumpbody, Deck, Other, Handrails, Unknown, x"</formula1>
     </dataValidation>
   </dataValidations>
